--- a/biology/Botanique/Bonnetiaceae/Bonnetiaceae.xlsx
+++ b/biology/Botanique/Bonnetiaceae/Bonnetiaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Bonnetiaceae est une famille de plantes à fleurs dicotylédones qui comprend entre 5 et 34 espèces réparties en 2 à 4 genres.
 Ce sont des arbres ou des arbustes des régions tropicales d'Amérique, d'Asie du Sud-Est et de Malaisie.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type  Bonnetia nommé en hommage au philosophe et naturaliste suisse Charles Bonnet (1720–1793). Bonnet fut le premier à utiliser le terme « évolution » dans un contexte biologique, proposant  la théorie du catastrophisme : les catastrophes que subirait périodiquement la Terre, seraient susceptibles de favoriser le développement évolutif des taxons survivants[1]. C'est aussi à lui que l'on doit la description d'un trouble hallucinatoire actuellement connu sous le nom de Syndrome de Charles Bonnet.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type  Bonnetia nommé en hommage au philosophe et naturaliste suisse Charles Bonnet (1720–1793). Bonnet fut le premier à utiliser le terme « évolution » dans un contexte biologique, proposant  la théorie du catastrophisme : les catastrophes que subirait périodiquement la Terre, seraient susceptibles de favoriser le développement évolutif des taxons survivants. C'est aussi à lui que l'on doit la description d'un trouble hallucinatoire actuellement connu sous le nom de Syndrome de Charles Bonnet.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La dernière révision de la classification phylogénétique la situe dans l'ordre des Malpighiales.
 </t>
@@ -574,13 +590,15 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (11 décembre 2016)[2] et NCBI  (11 décembre 2016)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (11 décembre 2016) et NCBI  (11 décembre 2016) :
 genre Archytaea Martius
 genre Bonnetia (en) Martius
 genre Ploiarium Korthals
-Selon DELTA Angio           (11 décembre 2016)[4] :
+Selon DELTA Angio           (11 décembre 2016) :
 genre Archytaea
 genre Bonnetia (en)
 genre Neblinaria
@@ -612,9 +630,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (11 décembre 2016)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (11 décembre 2016) :
 genre Archytaea
 Archytaea triflora
 genre Bonnetia (en)
